--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RolesStructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRA81HC\Desktop\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -32,13 +32,22 @@
     <t>path</t>
   </si>
   <si>
-    <t>1,2,3,5,4</t>
-  </si>
-  <si>
     <t>2,3,5</t>
   </si>
   <si>
-    <t>3,5</t>
+    <t>1,2,3,5,4,6</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>1,8,11</t>
+  </si>
+  <si>
+    <t>1,9,12</t>
   </si>
 </sst>
 </file>
@@ -355,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -376,7 +385,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -384,7 +393,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -392,7 +401,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRA81HC\Desktop\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RolesStructure\project\orgchart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -32,22 +32,25 @@
     <t>path</t>
   </si>
   <si>
-    <t>2,3,5</t>
-  </si>
-  <si>
-    <t>1,2,3,5,4,6</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>1,8,11</t>
-  </si>
-  <si>
-    <t>1,9,12</t>
+    <t>1,3,6</t>
+  </si>
+  <si>
+    <t>1,3,7</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,5,7</t>
+  </si>
+  <si>
+    <t>1,2,9,12</t>
+  </si>
+  <si>
+    <t>1,11,13,8,7</t>
+  </si>
+  <si>
+    <t>1,10,13,8,7</t>
+  </si>
+  <si>
+    <t>1,11,8,7</t>
   </si>
 </sst>
 </file>
@@ -82,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,15 +370,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,53 +389,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -32,25 +32,28 @@
     <t>path</t>
   </si>
   <si>
-    <t>1,3,6</t>
-  </si>
-  <si>
-    <t>1,3,7</t>
-  </si>
-  <si>
     <t>1,2,3,4,6,5,7</t>
   </si>
   <si>
     <t>1,2,9,12</t>
   </si>
   <si>
-    <t>1,11,13,8,7</t>
-  </si>
-  <si>
-    <t>1,10,13,8,7</t>
-  </si>
-  <si>
-    <t>1,11,8,7</t>
+    <t>1,5,6</t>
+  </si>
+  <si>
+    <t>1,5,7</t>
+  </si>
+  <si>
+    <t>1,3,4,6,5,7</t>
+  </si>
+  <si>
+    <t>1,2,10,13,8,7</t>
+  </si>
+  <si>
+    <t>1,2,11,13,8,7</t>
+  </si>
+  <si>
+    <t>1,4,6,5,7</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -394,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -402,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -410,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -418,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,7 +439,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -446,12 +449,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
@@ -490,6 +499,18 @@
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Structures" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,41 +25,179 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>1,3,6</t>
-  </si>
-  <si>
-    <t>1,3,7</t>
-  </si>
-  <si>
-    <t>1,2,3,4,6,5,7</t>
-  </si>
-  <si>
-    <t>1,2,9,12</t>
-  </si>
-  <si>
-    <t>1,11,13,8,7</t>
-  </si>
-  <si>
-    <t>1,10,13,8,7</t>
-  </si>
-  <si>
-    <t>1,11,8,7</t>
+    <t>Level 0</t>
+  </si>
+  <si>
+    <t>level 1</t>
+  </si>
+  <si>
+    <t>level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Member Engineering</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>SW Delivery Manager</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>Engineering Manager</t>
+  </si>
+  <si>
+    <t>Program Manager</t>
+  </si>
+  <si>
+    <t>DQA</t>
+  </si>
+  <si>
+    <t>Subject Matter Expert</t>
+  </si>
+  <si>
+    <t>Principal Technologist</t>
+  </si>
+  <si>
+    <t>SQM</t>
+  </si>
+  <si>
+    <t>Principal Consultant</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Level 7</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>EVH</t>
+  </si>
+  <si>
+    <t>EJV</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>ETM</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>ETI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWSD, P-Res, P-Res P, </t>
+  </si>
+  <si>
+    <t>P1 -P2, P3 -P4</t>
+  </si>
+  <si>
+    <t>Category C, D, E
+Category A, B, C</t>
+  </si>
+  <si>
+    <t>P-Res</t>
+  </si>
+  <si>
+    <t>P1 -P2, P2 -P3</t>
+  </si>
+  <si>
+    <t>With people Responsible(EWB)
+With people Responsible(IDN &amp; EWB)</t>
+  </si>
+  <si>
+    <t>SPjM-SW
+SPjM-SW (without ECU-PjMresponsible in Department)
+ECU-PjM</t>
+  </si>
+  <si>
+    <t>P3-P4, P1-P2
+P2-P4</t>
+  </si>
+  <si>
+    <t>Category C, D, E No people Responsible
+Category C, D, E With people Responsible
+Category C, D, E With people Responsible
+Category B With people Responsible</t>
+  </si>
+  <si>
+    <t>SPjM-SW</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>Invidual Role</t>
+  </si>
+  <si>
+    <t>Entry Criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -85,10 +224,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,128 +514,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" customWidth="1"/>
+    <col min="12" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="23" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:K2 D3:G3 J3:K12 D4:I13">
+      <formula1>$M$1:$M$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8">
+      <formula1>$L$1:$L$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8">
+      <formula1>$N$2:$N$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="39.54296875" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B5">
+      <formula1>$M$1:$M$13</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>